--- a/2012_0.1%_저항_v1.0_05_11.xlsx
+++ b/2012_0.1%_저항_v1.0_05_11.xlsx
@@ -378,8 +378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L71" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V114" sqref="V114"/>
+    <sheetView tabSelected="1" topLeftCell="D75" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3785,103 +3785,103 @@
         <v>7.87</v>
       </c>
       <c r="M19">
-        <f>L19*$I$19/(1-$I$19)</f>
+        <f t="shared" ref="M19:M37" si="0">L19*$I$19/(1-$I$19)</f>
         <v>9.5894957983193301</v>
       </c>
       <c r="O19">
-        <f>ABS((O$17/(O$17+$L19)-$I$19)/$I$19*100)</f>
+        <f t="shared" ref="O19:X28" si="1">ABS((O$17/(O$17+$L19)-$I$19)/$I$19*100)</f>
         <v>1.3351531451969079</v>
       </c>
       <c r="P19">
-        <f>ABS((P$17/(P$17+$L19)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>0.28061831153389993</v>
       </c>
       <c r="Q19">
-        <f>ABS((Q$17/(Q$17+$L19)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>0.79370978152443972</v>
       </c>
       <c r="R19">
-        <f>ABS((R$17/(R$17+$L19)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>16.550778108887926</v>
       </c>
       <c r="S19">
-        <f>ABS((S$17/(S$17+$L19)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>20.492568498733004</v>
       </c>
       <c r="T19">
-        <f>ABS((T$17/(T$17+$L19)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>21.533149774922403</v>
       </c>
       <c r="U19">
-        <f>ABS((U$17/(U$17+$L19)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>22.539145881982137</v>
       </c>
       <c r="V19">
-        <f>ABS((V$17/(V$17+$L19)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>23.271970908267644</v>
       </c>
       <c r="W19">
-        <f>ABS((W$17/(W$17+$L19)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>27.106067219554763</v>
       </c>
       <c r="X19">
-        <f>ABS((X$17/(X$17+$L19)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>28.140370913527029</v>
       </c>
       <c r="Y19">
-        <f>ABS((Y$17/(Y$17+$L19)-$I$19)/$I$19*100)</f>
+        <f t="shared" ref="Y19:AL28" si="2">ABS((Y$17/(Y$17+$L19)-$I$19)/$I$19*100)</f>
         <v>29.907234224169294</v>
       </c>
       <c r="Z19">
-        <f>ABS((Z$17/(Z$17+$L19)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>32.436725869832642</v>
       </c>
       <c r="AA19">
-        <f>ABS((AA$17/(AA$17+$L19)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>34.098334160673232</v>
       </c>
       <c r="AB19">
-        <f>ABS((AB$17/(AB$17+$L19)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>34.258396327361837</v>
       </c>
       <c r="AC19">
-        <f>ABS((AC$17/(AC$17+$L19)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>35.951078210492412</v>
       </c>
       <c r="AD19">
-        <f>ABS((AD$17/(AD$17+$L19)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>36.681485041451374</v>
       </c>
       <c r="AE19">
-        <f>ABS((AE$17/(AE$17+$L19)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>37.108728346840039</v>
       </c>
       <c r="AF19">
-        <f>ABS((AF$17/(AF$17+$L19)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>38.343522776298741</v>
       </c>
       <c r="AG19">
-        <f>ABS((AG$17/(AG$17+$L19)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>39.129715933163176</v>
       </c>
       <c r="AH19">
-        <f>ABS((AH$17/(AH$17+$L19)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>39.888136591109799</v>
       </c>
       <c r="AI19">
-        <f>ABS((AI$17/(AI$17+$L19)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>40.976830196888933</v>
       </c>
       <c r="AJ19">
-        <f>ABS((AJ$17/(AJ$17+$L19)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>41.442859517221827</v>
       </c>
       <c r="AK19">
-        <f>ABS((AK$17/(AK$17+$L19)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>42.122415235092234</v>
       </c>
       <c r="AL19">
-        <f>ABS((AL$17/(AL$17+$L19)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>43.622956431631231</v>
       </c>
     </row>
@@ -3893,103 +3893,103 @@
         <v>8.06</v>
       </c>
       <c r="M20">
-        <f>L20*$I$19/(1-$I$19)</f>
+        <f t="shared" si="0"/>
         <v>9.821008403361347</v>
       </c>
       <c r="O20">
-        <f>ABS((O$17/(O$17+$L20)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>2.4143886605919951</v>
       </c>
       <c r="P20">
-        <f>ABS((P$17/(P$17+$L20)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>1.3577463684303541</v>
       </c>
       <c r="Q20">
-        <f>ABS((Q$17/(Q$17+$L20)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>0.2809706257982334</v>
       </c>
       <c r="R20">
-        <f>ABS((R$17/(R$17+$L20)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>15.546940944758775</v>
       </c>
       <c r="S20">
-        <f>ABS((S$17/(S$17+$L20)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>19.516712232119222</v>
       </c>
       <c r="T20">
-        <f>ABS((T$17/(T$17+$L20)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>20.565366939330001</v>
       </c>
       <c r="U20">
-        <f>ABS((U$17/(U$17+$L20)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>21.579441112090276</v>
       </c>
       <c r="V20">
-        <f>ABS((V$17/(V$17+$L20)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>22.318319667527778</v>
       </c>
       <c r="W20">
-        <f>ABS((W$17/(W$17+$L20)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>26.186411744622735</v>
       </c>
       <c r="X20">
-        <f>ABS((X$17/(X$17+$L20)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>27.230555126024413</v>
       </c>
       <c r="Y20">
-        <f>ABS((Y$17/(Y$17+$L20)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>29.01488518213775</v>
       </c>
       <c r="Z20">
-        <f>ABS((Z$17/(Z$17+$L20)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>31.570828488027114</v>
       </c>
       <c r="AA20">
-        <f>ABS((AA$17/(AA$17+$L20)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>33.250739899511288</v>
       </c>
       <c r="AB20">
-        <f>ABS((AB$17/(AB$17+$L20)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>33.412604042806159</v>
       </c>
       <c r="AC20">
-        <f>ABS((AC$17/(AC$17+$L20)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>35.124760076775424</v>
       </c>
       <c r="AD20">
-        <f>ABS((AD$17/(AD$17+$L20)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>35.86380613219837</v>
       </c>
       <c r="AE20">
-        <f>ABS((AE$17/(AE$17+$L20)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>36.2961688213909</v>
       </c>
       <c r="AF20">
-        <f>ABS((AF$17/(AF$17+$L20)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>37.546032808838277</v>
       </c>
       <c r="AG20">
-        <f>ABS((AG$17/(AG$17+$L20)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>38.342032797665496</v>
       </c>
       <c r="AH20">
-        <f>ABS((AH$17/(AH$17+$L20)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>39.110070257611206</v>
       </c>
       <c r="AI20">
-        <f>ABS((AI$17/(AI$17+$L20)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>40.212837106831614</v>
       </c>
       <c r="AJ20">
-        <f>ABS((AJ$17/(AJ$17+$L20)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>40.684987455510786</v>
       </c>
       <c r="AK20">
-        <f>ABS((AK$17/(AK$17+$L20)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>41.373572780997165</v>
       </c>
       <c r="AL20">
-        <f>ABS((AL$17/(AL$17+$L20)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>42.894489754588768</v>
       </c>
     </row>
@@ -4001,103 +4001,103 @@
         <v>8.66</v>
       </c>
       <c r="M21">
-        <f>L21*$I$19/(1-$I$19)</f>
+        <f t="shared" si="0"/>
         <v>10.552100840336136</v>
       </c>
       <c r="O21">
-        <f>ABS((O$17/(O$17+$L21)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>5.6726728455471669</v>
       </c>
       <c r="P21">
-        <f>ABS((P$17/(P$17+$L21)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>4.6114765596860856</v>
       </c>
       <c r="Q21">
-        <f>ABS((Q$17/(Q$17+$L21)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>3.5291474783781043</v>
       </c>
       <c r="R21">
-        <f>ABS((R$17/(R$17+$L21)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>12.487445597589538</v>
       </c>
       <c r="S21">
-        <f>ABS((S$17/(S$17+$L21)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>16.536245592914238</v>
       </c>
       <c r="T21">
-        <f>ABS((T$17/(T$17+$L21)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>17.607917218823125</v>
       </c>
       <c r="U21">
-        <f>ABS((U$17/(U$17+$L21)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>18.645102227647225</v>
       </c>
       <c r="V21">
-        <f>ABS((V$17/(V$17+$L21)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>19.401348610273544</v>
       </c>
       <c r="W21">
-        <f>ABS((W$17/(W$17+$L21)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>23.367653477803145</v>
       </c>
       <c r="X21">
-        <f>ABS((X$17/(X$17+$L21)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>24.440411373260723</v>
       </c>
       <c r="Y21">
-        <f>ABS((Y$17/(Y$17+$L21)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>26.275715645362013</v>
       </c>
       <c r="Z21">
-        <f>ABS((Z$17/(Z$17+$L21)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>28.909247331829686</v>
       </c>
       <c r="AA21">
-        <f>ABS((AA$17/(AA$17+$L21)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>30.643093326135347</v>
       </c>
       <c r="AB21">
-        <f>ABS((AB$17/(AB$17+$L21)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>30.810277566028425</v>
       </c>
       <c r="AC21">
-        <f>ABS((AC$17/(AC$17+$L21)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>32.580037664783404</v>
       </c>
       <c r="AD21">
-        <f>ABS((AD$17/(AD$17+$L21)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>33.344699714419669</v>
       </c>
       <c r="AE21">
-        <f>ABS((AE$17/(AE$17+$L21)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>33.792258800177372</v>
       </c>
       <c r="AF21">
-        <f>ABS((AF$17/(AF$17+$L21)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>35.086926143602781</v>
       </c>
       <c r="AG21">
-        <f>ABS((AG$17/(AG$17+$L21)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>35.912137608010987</v>
       </c>
       <c r="AH21">
-        <f>ABS((AH$17/(AH$17+$L21)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>36.708860759493639</v>
       </c>
       <c r="AI21">
-        <f>ABS((AI$17/(AI$17+$L21)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>37.853675517821564</v>
       </c>
       <c r="AJ21">
-        <f>ABS((AJ$17/(AJ$17+$L21)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>38.344139078547215</v>
       </c>
       <c r="AK21">
-        <f>ABS((AK$17/(AK$17+$L21)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>39.059766352502969</v>
       </c>
       <c r="AL21">
-        <f>ABS((AL$17/(AL$17+$L21)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>40.641817819413959</v>
       </c>
     </row>
@@ -4109,103 +4109,103 @@
         <v>9.31</v>
       </c>
       <c r="M22">
-        <f>L22*$I$19/(1-$I$19)</f>
+        <f t="shared" si="0"/>
         <v>11.344117647058827</v>
       </c>
       <c r="O22">
-        <f>ABS((O$17/(O$17+$L22)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>8.965517241379322</v>
       </c>
       <c r="P22">
-        <f>ABS((P$17/(P$17+$L22)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>7.9024818800790904</v>
       </c>
       <c r="Q22">
-        <f>ABS((Q$17/(Q$17+$L22)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>6.8173516807406607</v>
       </c>
       <c r="R22">
-        <f>ABS((R$17/(R$17+$L22)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>9.3507300403851801</v>
       </c>
       <c r="S22">
-        <f>ABS((S$17/(S$17+$L22)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>13.47074338185014</v>
       </c>
       <c r="T22">
-        <f>ABS((T$17/(T$17+$L22)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>14.563506777077398</v>
       </c>
       <c r="U22">
-        <f>ABS((U$17/(U$17+$L22)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>15.622000838075657</v>
       </c>
       <c r="V22">
-        <f>ABS((V$17/(V$17+$L22)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>16.394340605752884</v>
       </c>
       <c r="W22">
-        <f>ABS((W$17/(W$17+$L22)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>20.452750723874694</v>
       </c>
       <c r="X22">
-        <f>ABS((X$17/(X$17+$L22)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>21.552647453495659</v>
       </c>
       <c r="Y22">
-        <f>ABS((Y$17/(Y$17+$L22)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>23.436586791350067</v>
       </c>
       <c r="Z22">
-        <f>ABS((Z$17/(Z$17+$L22)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>26.144779804093321</v>
       </c>
       <c r="AA22">
-        <f>ABS((AA$17/(AA$17+$L22)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>27.930924349387087</v>
       </c>
       <c r="AB22">
-        <f>ABS((AB$17/(AB$17+$L22)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>28.1032836017521</v>
       </c>
       <c r="AC22">
-        <f>ABS((AC$17/(AC$17+$L22)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>29.9292525376807</v>
       </c>
       <c r="AD22">
-        <f>ABS((AD$17/(AD$17+$L22)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>30.719008868785835</v>
       </c>
       <c r="AE22">
-        <f>ABS((AE$17/(AE$17+$L22)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>31.181482209960731</v>
       </c>
       <c r="AF22">
-        <f>ABS((AF$17/(AF$17+$L22)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>32.520235059319191</v>
       </c>
       <c r="AG22">
-        <f>ABS((AG$17/(AG$17+$L22)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>33.374278100823169</v>
       </c>
       <c r="AH22">
-        <f>ABS((AH$17/(AH$17+$L22)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>34.199378706580028</v>
       </c>
       <c r="AI22">
-        <f>ABS((AI$17/(AI$17+$L22)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>35.385901100675198</v>
       </c>
       <c r="AJ22">
-        <f>ABS((AJ$17/(AJ$17+$L22)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>35.894569740463439</v>
       </c>
       <c r="AK22">
-        <f>ABS((AK$17/(AK$17+$L22)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>36.63712233939313</v>
       </c>
       <c r="AL22">
-        <f>ABS((AL$17/(AL$17+$L22)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>38.280226975120009</v>
       </c>
     </row>
@@ -4217,103 +4217,103 @@
         <v>9.5299999999999994</v>
       </c>
       <c r="M23">
-        <f>L23*$I$19/(1-$I$19)</f>
+        <f t="shared" si="0"/>
         <v>11.612184873949582</v>
       </c>
       <c r="O23">
-        <f>ABS((O$17/(O$17+$L23)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>10.028552602679552</v>
       </c>
       <c r="P23">
-        <f>ABS((P$17/(P$17+$L23)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>8.965517241379322</v>
       </c>
       <c r="Q23">
-        <f>ABS((Q$17/(Q$17+$L23)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>7.880087949804258</v>
       </c>
       <c r="R23">
-        <f>ABS((R$17/(R$17+$L23)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>8.3283262746017321</v>
       </c>
       <c r="S23">
-        <f>ABS((S$17/(S$17+$L23)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>12.469397070417845</v>
       </c>
       <c r="T23">
-        <f>ABS((T$17/(T$17+$L23)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>13.568482241311235</v>
       </c>
       <c r="U23">
-        <f>ABS((U$17/(U$17+$L23)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>14.633394534757493</v>
       </c>
       <c r="V23">
-        <f>ABS((V$17/(V$17+$L23)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>15.410600500748464</v>
       </c>
       <c r="W23">
-        <f>ABS((W$17/(W$17+$L23)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>19.497121255455927</v>
       </c>
       <c r="X23">
-        <f>ABS((X$17/(X$17+$L23)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>20.605372127963644</v>
       </c>
       <c r="Y23">
-        <f>ABS((Y$17/(Y$17+$L23)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>22.504350296530401</v>
       </c>
       <c r="Z23">
-        <f>ABS((Z$17/(Z$17+$L23)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>25.235777132724145</v>
       </c>
       <c r="AA23">
-        <f>ABS((AA$17/(AA$17+$L23)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>27.03828865776434</v>
       </c>
       <c r="AB23">
-        <f>ABS((AB$17/(AB$17+$L23)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>27.212271196049127</v>
       </c>
       <c r="AC23">
-        <f>ABS((AC$17/(AC$17+$L23)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>29.055912007332708</v>
       </c>
       <c r="AD23">
-        <f>ABS((AD$17/(AD$17+$L23)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>29.853580582564554</v>
       </c>
       <c r="AE23">
-        <f>ABS((AE$17/(AE$17+$L23)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>30.32076267264517</v>
       </c>
       <c r="AF23">
-        <f>ABS((AF$17/(AF$17+$L23)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>31.673460394403413</v>
       </c>
       <c r="AG23">
-        <f>ABS((AG$17/(AG$17+$L23)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>32.536643468160278</v>
       </c>
       <c r="AH23">
-        <f>ABS((AH$17/(AH$17+$L23)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>33.370754981756932</v>
       </c>
       <c r="AI23">
-        <f>ABS((AI$17/(AI$17+$L23)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>34.570546645647873</v>
       </c>
       <c r="AJ23">
-        <f>ABS((AJ$17/(AJ$17+$L23)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>35.085016387013624</v>
       </c>
       <c r="AK23">
-        <f>ABS((AK$17/(AK$17+$L23)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>35.836158659279462</v>
       </c>
       <c r="AL23">
-        <f>ABS((AL$17/(AL$17+$L23)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>37.498782075697292</v>
       </c>
     </row>
@@ -4325,103 +4325,103 @@
         <v>9.76</v>
       </c>
       <c r="M24">
-        <f>L24*$I$19/(1-$I$19)</f>
+        <f t="shared" si="0"/>
         <v>11.89243697478992</v>
       </c>
       <c r="O24">
-        <f>ABS((O$17/(O$17+$L24)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>11.113682802017983</v>
       </c>
       <c r="P24">
-        <f>ABS((P$17/(P$17+$L24)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>10.050946532954374</v>
       </c>
       <c r="Q24">
-        <f>ABS((Q$17/(Q$17+$L24)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>8.965517241379322</v>
       </c>
       <c r="R24">
-        <f>ABS((R$17/(R$17+$L24)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>7.2796934865900429</v>
       </c>
       <c r="S24">
-        <f>ABS((S$17/(S$17+$L24)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>11.441258702921967</v>
       </c>
       <c r="T24">
-        <f>ABS((T$17/(T$17+$L24)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>12.546543629593627</v>
       </c>
       <c r="U24">
-        <f>ABS((U$17/(U$17+$L24)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>13.617767387492666</v>
       </c>
       <c r="V24">
-        <f>ABS((V$17/(V$17+$L24)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>14.399768889355769</v>
       </c>
       <c r="W24">
-        <f>ABS((W$17/(W$17+$L24)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>18.514133491194286</v>
       </c>
       <c r="X24">
-        <f>ABS((X$17/(X$17+$L24)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>19.630697651876787</v>
       </c>
       <c r="Y24">
-        <f>ABS((Y$17/(Y$17+$L24)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>21.544677252654328</v>
       </c>
       <c r="Z24">
-        <f>ABS((Z$17/(Z$17+$L24)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>24.299358773149184</v>
       </c>
       <c r="AA24">
-        <f>ABS((AA$17/(AA$17+$L24)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>26.118301050985831</v>
       </c>
       <c r="AB24">
-        <f>ABS((AB$17/(AB$17+$L24)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>26.293915189297994</v>
       </c>
       <c r="AC24">
-        <f>ABS((AC$17/(AC$17+$L24)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>28.155339805825207</v>
       </c>
       <c r="AD24">
-        <f>ABS((AD$17/(AD$17+$L24)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>28.960982748314994</v>
       </c>
       <c r="AE24">
-        <f>ABS((AE$17/(AE$17+$L24)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>29.432913874816137</v>
       </c>
       <c r="AF24">
-        <f>ABS((AF$17/(AF$17+$L24)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>30.799689595479222</v>
       </c>
       <c r="AG24">
-        <f>ABS((AG$17/(AG$17+$L24)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>31.672110626479149</v>
       </c>
       <c r="AH24">
-        <f>ABS((AH$17/(AH$17+$L24)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>32.515337423312864</v>
       </c>
       <c r="AI24">
-        <f>ABS((AI$17/(AI$17+$L24)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>33.728565532250187</v>
       </c>
       <c r="AJ24">
-        <f>ABS((AJ$17/(AJ$17+$L24)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>34.248914294198414</v>
       </c>
       <c r="AK24">
-        <f>ABS((AK$17/(AK$17+$L24)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>35.008766803039151</v>
       </c>
       <c r="AL24">
-        <f>ABS((AL$17/(AL$17+$L24)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>36.691204959318071</v>
       </c>
     </row>
@@ -4433,103 +4433,103 @@
         <v>14</v>
       </c>
       <c r="M25">
-        <f>L25*$I$19/(1-$I$19)</f>
+        <f t="shared" si="0"/>
         <v>17.058823529411768</v>
       </c>
       <c r="O25">
-        <f>ABS((O$17/(O$17+$L25)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>27.281764523143842</v>
       </c>
       <c r="P25">
-        <f>ABS((P$17/(P$17+$L25)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>26.259360757360394</v>
       </c>
       <c r="Q25">
-        <f>ABS((Q$17/(Q$17+$L25)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>25.210727969348667</v>
       </c>
       <c r="R25">
-        <f>ABS((R$17/(R$17+$L25)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>8.965517241379322</v>
       </c>
       <c r="S25">
-        <f>ABS((S$17/(S$17+$L25)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>4.6305418719211895</v>
       </c>
       <c r="T25">
-        <f>ABS((T$17/(T$17+$L25)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>3.4667900948854533</v>
       </c>
       <c r="U25">
-        <f>ABS((U$17/(U$17+$L25)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>2.3338661794930533</v>
       </c>
       <c r="V25">
-        <f>ABS((V$17/(V$17+$L25)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>1.5036743923120444</v>
       </c>
       <c r="W25">
-        <f>ABS((W$17/(W$17+$L25)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>2.9085457271364112</v>
       </c>
       <c r="X25">
-        <f>ABS((X$17/(X$17+$L25)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>4.1189496994621715</v>
       </c>
       <c r="Y25">
-        <f>ABS((Y$17/(Y$17+$L25)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>6.2068965517241317</v>
       </c>
       <c r="Z25">
-        <f>ABS((Z$17/(Z$17+$L25)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>9.2413793103448114</v>
       </c>
       <c r="AA25">
-        <f>ABS((AA$17/(AA$17+$L25)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>11.26436781609195</v>
       </c>
       <c r="AB25">
-        <f>ABS((AB$17/(AB$17+$L25)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>11.460502435762722</v>
       </c>
       <c r="AC25">
-        <f>ABS((AC$17/(AC$17+$L25)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>13.548387096774158</v>
       </c>
       <c r="AD25">
-        <f>ABS((AD$17/(AD$17+$L25)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>14.457148083783016</v>
       </c>
       <c r="AE25">
-        <f>ABS((AE$17/(AE$17+$L25)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>14.990925589836641</v>
       </c>
       <c r="AF25">
-        <f>ABS((AF$17/(AF$17+$L25)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>16.542859675560663</v>
       </c>
       <c r="AG25">
-        <f>ABS((AG$17/(AG$17+$L25)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>17.538192928852013</v>
       </c>
       <c r="AH25">
-        <f>ABS((AH$17/(AH$17+$L25)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>18.503740648379036</v>
       </c>
       <c r="AI25">
-        <f>ABS((AI$17/(AI$17+$L25)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>19.899074852817485</v>
       </c>
       <c r="AJ25">
-        <f>ABS((AJ$17/(AJ$17+$L25)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>20.499750124937506</v>
       </c>
       <c r="AK25">
-        <f>ABS((AK$17/(AK$17+$L25)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>21.379310344827566</v>
       </c>
       <c r="AL25">
-        <f>ABS((AL$17/(AL$17+$L25)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>23.337041156840911</v>
       </c>
     </row>
@@ -4541,103 +4541,103 @@
         <v>15.4</v>
       </c>
       <c r="M26">
-        <f>L26*$I$19/(1-$I$19)</f>
+        <f t="shared" si="0"/>
         <v>18.764705882352946</v>
       </c>
       <c r="O26">
-        <f>ABS((O$17/(O$17+$L26)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>31.401777864608782</v>
       </c>
       <c r="P26">
-        <f>ABS((P$17/(P$17+$L26)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>30.400431553176489</v>
       </c>
       <c r="Q26">
-        <f>ABS((Q$17/(Q$17+$L26)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>29.372293185680618</v>
       </c>
       <c r="R26">
-        <f>ABS((R$17/(R$17+$L26)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>13.300492610837445</v>
       </c>
       <c r="S26">
-        <f>ABS((S$17/(S$17+$L26)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>8.965517241379322</v>
       </c>
       <c r="T26">
-        <f>ABS((T$17/(T$17+$L26)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>7.798408488063675</v>
       </c>
       <c r="U26">
-        <f>ABS((U$17/(U$17+$L26)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>6.6608467917939969</v>
       </c>
       <c r="V26">
-        <f>ABS((V$17/(V$17+$L26)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>5.8263971462544637</v>
       </c>
       <c r="W26">
-        <f>ABS((W$17/(W$17+$L26)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>1.3793103448276052</v>
       </c>
       <c r="X26">
-        <f>ABS((X$17/(X$17+$L26)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>0.15572858731926364</v>
       </c>
       <c r="Y26">
-        <f>ABS((Y$17/(Y$17+$L26)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>1.9586206896551697</v>
       </c>
       <c r="Z26">
-        <f>ABS((Z$17/(Z$17+$L26)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>5.0397877984084865</v>
       </c>
       <c r="AA26">
-        <f>ABS((AA$17/(AA$17+$L26)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>7.0993914807302136</v>
       </c>
       <c r="AB26">
-        <f>ABS((AB$17/(AB$17+$L26)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>7.2993103448275809</v>
       </c>
       <c r="AC26">
-        <f>ABS((AC$17/(AC$17+$L26)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>9.4300518134714739</v>
       </c>
       <c r="AD26">
-        <f>ABS((AD$17/(AD$17+$L26)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>10.358938177969824</v>
       </c>
       <c r="AE26">
-        <f>ABS((AE$17/(AE$17+$L26)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>10.904953614563272</v>
       </c>
       <c r="AF26">
-        <f>ABS((AF$17/(AF$17+$L26)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>12.494224351843926</v>
       </c>
       <c r="AG26">
-        <f>ABS((AG$17/(AG$17+$L26)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>13.514880701458557</v>
       </c>
       <c r="AH26">
-        <f>ABS((AH$17/(AH$17+$L26)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>14.506024096385525</v>
       </c>
       <c r="AI26">
-        <f>ABS((AI$17/(AI$17+$L26)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>15.94014313597917</v>
       </c>
       <c r="AJ26">
-        <f>ABS((AJ$17/(AJ$17+$L26)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>16.558169513374143</v>
       </c>
       <c r="AK26">
-        <f>ABS((AK$17/(AK$17+$L26)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>17.463848720800872</v>
       </c>
       <c r="AL26">
-        <f>ABS((AL$17/(AL$17+$L26)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>19.482758620689641</v>
       </c>
     </row>
@@ -4649,103 +4649,103 @@
         <v>15.8</v>
       </c>
       <c r="M27">
-        <f>L27*$I$19/(1-$I$19)</f>
+        <f t="shared" si="0"/>
         <v>19.252100840336141</v>
       </c>
       <c r="O27">
-        <f>ABS((O$17/(O$17+$L27)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>32.494541259836026</v>
       </c>
       <c r="P27">
-        <f>ABS((P$17/(P$17+$L27)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>31.499516724069871</v>
       </c>
       <c r="Q27">
-        <f>ABS((Q$17/(Q$17+$L27)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>30.477578112352287</v>
       </c>
       <c r="R27">
-        <f>ABS((R$17/(R$17+$L27)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>14.46424438787319</v>
       </c>
       <c r="S27">
-        <f>ABS((S$17/(S$17+$L27)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>10.132625994694976</v>
       </c>
       <c r="T27">
-        <f>ABS((T$17/(T$17+$L27)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>8.965517241379322</v>
       </c>
       <c r="U27">
-        <f>ABS((U$17/(U$17+$L27)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>7.8275862068965667</v>
       </c>
       <c r="V27">
-        <f>ABS((V$17/(V$17+$L27)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>6.99263371410271</v>
       </c>
       <c r="W27">
-        <f>ABS((W$17/(W$17+$L27)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>2.5395537525355119</v>
       </c>
       <c r="X27">
-        <f>ABS((X$17/(X$17+$L27)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>1.3133433283358547</v>
       </c>
       <c r="Y27">
-        <f>ABS((Y$17/(Y$17+$L27)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>0.80654587960256019</v>
       </c>
       <c r="Z27">
-        <f>ABS((Z$17/(Z$17+$L27)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>3.8980509745127478</v>
       </c>
       <c r="AA27">
-        <f>ABS((AA$17/(AA$17+$L27)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>5.9660645867542428</v>
       </c>
       <c r="AB27">
-        <f>ABS((AB$17/(AB$17+$L27)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>6.1668637976525931</v>
       </c>
       <c r="AC27">
-        <f>ABS((AC$17/(AC$17+$L27)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>8.3076923076922942</v>
       </c>
       <c r="AD27">
-        <f>ABS((AD$17/(AD$17+$L27)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>9.2413793103448114</v>
       </c>
       <c r="AE27">
-        <f>ABS((AE$17/(AE$17+$L27)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>9.7903309651706785</v>
       </c>
       <c r="AF27">
-        <f>ABS((AF$17/(AF$17+$L27)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>11.388630009319632</v>
       </c>
       <c r="AG27">
-        <f>ABS((AG$17/(AG$17+$L27)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>12.415462970693817</v>
       </c>
       <c r="AH27">
-        <f>ABS((AH$17/(AH$17+$L27)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>13.412887828162267</v>
       </c>
       <c r="AI27">
-        <f>ABS((AI$17/(AI$17+$L27)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>14.85659039639058</v>
       </c>
       <c r="AJ27">
-        <f>ABS((AJ$17/(AJ$17+$L27)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>15.478927203065107</v>
       </c>
       <c r="AK27">
-        <f>ABS((AK$17/(AK$17+$L27)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>16.391119508738779</v>
       </c>
       <c r="AL27">
-        <f>ABS((AL$17/(AL$17+$L27)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>18.425389075373786</v>
       </c>
     </row>
@@ -4757,103 +4757,103 @@
         <v>16.2</v>
       </c>
       <c r="M28">
-        <f>L28*$I$19/(1-$I$19)</f>
+        <f t="shared" si="0"/>
         <v>19.739495798319332</v>
       </c>
       <c r="O28">
-        <f>ABS((O$17/(O$17+$L28)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>33.55303532083429</v>
       </c>
       <c r="P28">
-        <f>ABS((P$17/(P$17+$L28)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>32.564429017516119</v>
       </c>
       <c r="Q28">
-        <f>ABS((Q$17/(Q$17+$L28)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>31.548801870251332</v>
       </c>
       <c r="R28">
-        <f>ABS((R$17/(R$17+$L28)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>15.59716830326559</v>
       </c>
       <c r="S28">
-        <f>ABS((S$17/(S$17+$L28)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>11.270187690964658</v>
       </c>
       <c r="T28">
-        <f>ABS((T$17/(T$17+$L28)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>10.103448275862076</v>
       </c>
       <c r="U28">
-        <f>ABS((U$17/(U$17+$L28)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>8.965517241379322</v>
       </c>
       <c r="V28">
-        <f>ABS((V$17/(V$17+$L28)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>8.1303385004745508</v>
       </c>
       <c r="W28">
-        <f>ABS((W$17/(W$17+$L28)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>3.6728147554129937</v>
       </c>
       <c r="X28">
-        <f>ABS((X$17/(X$17+$L28)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="1"/>
         <v>2.4444224878964573</v>
       </c>
       <c r="Y28">
-        <f>ABS((Y$17/(Y$17+$L28)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>0.31978424195722971</v>
       </c>
       <c r="Z28">
-        <f>ABS((Z$17/(Z$17+$L28)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>2.7808676307007554</v>
       </c>
       <c r="AA28">
-        <f>ABS((AA$17/(AA$17+$L28)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>4.8564722874164774</v>
       </c>
       <c r="AB28">
-        <f>ABS((AB$17/(AB$17+$L28)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>5.0580714864499932</v>
       </c>
       <c r="AC28">
-        <f>ABS((AC$17/(AC$17+$L28)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>7.2081218274111531</v>
       </c>
       <c r="AD28">
-        <f>ABS((AD$17/(AD$17+$L28)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>8.14622763806066</v>
       </c>
       <c r="AE28">
-        <f>ABS((AE$17/(AE$17+$L28)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>8.6978898610396058</v>
       </c>
       <c r="AF28">
-        <f>ABS((AF$17/(AF$17+$L28)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>10.304555751321413</v>
       </c>
       <c r="AG28">
-        <f>ABS((AG$17/(AG$17+$L28)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>11.337137186802265</v>
       </c>
       <c r="AH28">
-        <f>ABS((AH$17/(AH$17+$L28)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>12.340425531914899</v>
       </c>
       <c r="AI28">
-        <f>ABS((AI$17/(AI$17+$L28)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>13.793103448275849</v>
       </c>
       <c r="AJ28">
-        <f>ABS((AJ$17/(AJ$17+$L28)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>14.419487503954432</v>
       </c>
       <c r="AK28">
-        <f>ABS((AK$17/(AK$17+$L28)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>15.337806210017144</v>
       </c>
       <c r="AL28">
-        <f>ABS((AL$17/(AL$17+$L28)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="2"/>
         <v>17.386569872958244</v>
       </c>
     </row>
@@ -4865,103 +4865,103 @@
         <v>16.5</v>
       </c>
       <c r="M29">
-        <f>L29*$I$19/(1-$I$19)</f>
+        <f t="shared" si="0"/>
         <v>20.105042016806731</v>
       </c>
       <c r="O29">
-        <f>ABS((O$17/(O$17+$L29)-$I$19)/$I$19*100)</f>
+        <f t="shared" ref="O29:X37" si="3">ABS((O$17/(O$17+$L29)-$I$19)/$I$19*100)</f>
         <v>34.325375088511549</v>
       </c>
       <c r="P29">
-        <f>ABS((P$17/(P$17+$L29)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>33.341634983507106</v>
       </c>
       <c r="Q29">
-        <f>ABS((Q$17/(Q$17+$L29)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>32.330803372114403</v>
       </c>
       <c r="R29">
-        <f>ABS((R$17/(R$17+$L29)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>16.427360090446587</v>
       </c>
       <c r="S29">
-        <f>ABS((S$17/(S$17+$L29)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>12.104637336504169</v>
       </c>
       <c r="T29">
-        <f>ABS((T$17/(T$17+$L29)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>10.938400768655923</v>
       </c>
       <c r="U29">
-        <f>ABS((U$17/(U$17+$L29)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>9.8006959822841129</v>
       </c>
       <c r="V29">
-        <f>ABS((V$17/(V$17+$L29)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>8.965517241379322</v>
       </c>
       <c r="W29">
-        <f>ABS((W$17/(W$17+$L29)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>4.5056146278445928</v>
       </c>
       <c r="X29">
-        <f>ABS((X$17/(X$17+$L29)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>3.2758620689655493</v>
       </c>
       <c r="Y29">
-        <f>ABS((Y$17/(Y$17+$L29)-$I$19)/$I$19*100)</f>
+        <f t="shared" ref="Y29:AL37" si="4">ABS((Y$17/(Y$17+$L29)-$I$19)/$I$19*100)</f>
         <v>1.1481516859298941</v>
       </c>
       <c r="Z29">
-        <f>ABS((Z$17/(Z$17+$L29)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>1.9586206896551697</v>
       </c>
       <c r="AA29">
-        <f>ABS((AA$17/(AA$17+$L29)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>4.0394088669950552</v>
       </c>
       <c r="AB29">
-        <f>ABS((AB$17/(AB$17+$L29)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>4.2415579774879335</v>
       </c>
       <c r="AC29">
-        <f>ABS((AC$17/(AC$17+$L29)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>6.3979848866498576</v>
       </c>
       <c r="AD29">
-        <f>ABS((AD$17/(AD$17+$L29)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>7.3391662377766078</v>
       </c>
       <c r="AE29">
-        <f>ABS((AE$17/(AE$17+$L29)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>7.8927203065133913</v>
       </c>
       <c r="AF29">
-        <f>ABS((AF$17/(AF$17+$L29)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>9.5052473763118321</v>
       </c>
       <c r="AG29">
-        <f>ABS((AG$17/(AG$17+$L29)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>10.541871921182244</v>
       </c>
       <c r="AH29">
-        <f>ABS((AH$17/(AH$17+$L29)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>11.549295774647867</v>
       </c>
       <c r="AI29">
-        <f>ABS((AI$17/(AI$17+$L29)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>13.008323424494639</v>
       </c>
       <c r="AJ29">
-        <f>ABS((AJ$17/(AJ$17+$L29)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>13.637577566569783</v>
       </c>
       <c r="AK29">
-        <f>ABS((AK$17/(AK$17+$L29)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>14.560247965904672</v>
       </c>
       <c r="AL29">
-        <f>ABS((AL$17/(AL$17+$L29)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>16.619337390128443</v>
       </c>
     </row>
@@ -4973,103 +4973,103 @@
         <v>18.2</v>
       </c>
       <c r="M30">
-        <f>L30*$I$19/(1-$I$19)</f>
+        <f t="shared" si="0"/>
         <v>22.176470588235301</v>
       </c>
       <c r="O30">
-        <f>ABS((O$17/(O$17+$L30)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>38.383785206633327</v>
       </c>
       <c r="P30">
-        <f>ABS((P$17/(P$17+$L30)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>37.428155738214556</v>
       </c>
       <c r="Q30">
-        <f>ABS((Q$17/(Q$17+$L30)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>36.445167973952948</v>
       </c>
       <c r="R30">
-        <f>ABS((R$17/(R$17+$L30)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>20.839580209895065</v>
       </c>
       <c r="S30">
-        <f>ABS((S$17/(S$17+$L30)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>16.55172413793105</v>
       </c>
       <c r="T30">
-        <f>ABS((T$17/(T$17+$L30)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>15.391480730223131</v>
       </c>
       <c r="U30">
-        <f>ABS((U$17/(U$17+$L30)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>14.258219727345638</v>
       </c>
       <c r="V30">
-        <f>ABS((V$17/(V$17+$L30)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>13.425419854914059</v>
       </c>
       <c r="W30">
-        <f>ABS((W$17/(W$17+$L30)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>8.965517241379322</v>
       </c>
       <c r="X30">
-        <f>ABS((X$17/(X$17+$L30)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>7.7319876647042483</v>
       </c>
       <c r="Y30">
-        <f>ABS((Y$17/(Y$17+$L30)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>5.5938697318007629</v>
       </c>
       <c r="Z30">
-        <f>ABS((Z$17/(Z$17+$L30)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>2.463054187192133</v>
       </c>
       <c r="AA30">
-        <f>ABS((AA$17/(AA$17+$L30)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>0.36026762738036072</v>
       </c>
       <c r="AB30">
-        <f>ABS((AB$17/(AB$17+$L30)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>0.15572858731924344</v>
       </c>
       <c r="AC30">
-        <f>ABS((AC$17/(AC$17+$L30)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>2.0289855072463729</v>
       </c>
       <c r="AD30">
-        <f>ABS((AD$17/(AD$17+$L30)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>2.9841165336186153</v>
       </c>
       <c r="AE30">
-        <f>ABS((AE$17/(AE$17+$L30)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>3.5463310998529023</v>
       </c>
       <c r="AF30">
-        <f>ABS((AF$17/(AF$17+$L30)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>5.1860148811904905</v>
       </c>
       <c r="AG30">
-        <f>ABS((AG$17/(AG$17+$L30)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>6.2416160340882074</v>
       </c>
       <c r="AH30">
-        <f>ABS((AH$17/(AH$17+$L30)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>7.2686230248307071</v>
       </c>
       <c r="AI30">
-        <f>ABS((AI$17/(AI$17+$L30)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>8.7580103753432752</v>
       </c>
       <c r="AJ30">
-        <f>ABS((AJ$17/(AJ$17+$L30)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>9.401088929219604</v>
       </c>
       <c r="AK30">
-        <f>ABS((AK$17/(AK$17+$L30)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>10.344827586206886</v>
       </c>
       <c r="AL30">
-        <f>ABS((AL$17/(AL$17+$L30)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>12.454361054766725</v>
       </c>
     </row>
@@ -5081,103 +5081,103 @@
         <v>18.7</v>
       </c>
       <c r="M31">
-        <f>L31*$I$19/(1-$I$19)</f>
+        <f t="shared" si="0"/>
         <v>22.785714285714292</v>
       </c>
       <c r="O31">
-        <f>ABS((O$17/(O$17+$L31)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>39.483681936254285</v>
       </c>
       <c r="P31">
-        <f>ABS((P$17/(P$17+$L31)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>38.536406610722267</v>
       </c>
       <c r="Q31">
-        <f>ABS((Q$17/(Q$17+$L31)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>37.561732134635427</v>
       </c>
       <c r="R31">
-        <f>ABS((R$17/(R$17+$L31)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>22.049984182220836</v>
       </c>
       <c r="S31">
-        <f>ABS((S$17/(S$17+$L31)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>17.775305895439388</v>
       </c>
       <c r="T31">
-        <f>ABS((T$17/(T$17+$L31)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>16.617691154422797</v>
       </c>
       <c r="U31">
-        <f>ABS((U$17/(U$17+$L31)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>15.486611994862177</v>
       </c>
       <c r="V31">
-        <f>ABS((V$17/(V$17+$L31)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>14.655172413793125</v>
       </c>
       <c r="W31">
-        <f>ABS((W$17/(W$17+$L31)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>10.199046818054395</v>
       </c>
       <c r="X31">
-        <f>ABS((X$17/(X$17+$L31)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>8.965517241379322</v>
       </c>
       <c r="Y31">
-        <f>ABS((Y$17/(Y$17+$L31)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>6.826325740523985</v>
       </c>
       <c r="Z31">
-        <f>ABS((Z$17/(Z$17+$L31)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>3.6914791974290222</v>
       </c>
       <c r="AA31">
-        <f>ABS((AA$17/(AA$17+$L31)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>1.5843429636533353</v>
       </c>
       <c r="AB31">
-        <f>ABS((AB$17/(AB$17+$L31)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>1.3793103448275847</v>
       </c>
       <c r="AC31">
-        <f>ABS((AC$17/(AC$17+$L31)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>0.81145584725534836</v>
       </c>
       <c r="AD31">
-        <f>ABS((AD$17/(AD$17+$L31)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>1.7696811971372708</v>
       </c>
       <c r="AE31">
-        <f>ABS((AE$17/(AE$17+$L31)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>2.3338447872082493</v>
       </c>
       <c r="AF31">
-        <f>ABS((AF$17/(AF$17+$L31)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>3.9797532426447333</v>
       </c>
       <c r="AG31">
-        <f>ABS((AG$17/(AG$17+$L31)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>5.039787798408466</v>
       </c>
       <c r="AH31">
-        <f>ABS((AH$17/(AH$17+$L31)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>6.0714285714285756</v>
       </c>
       <c r="AI31">
-        <f>ABS((AI$17/(AI$17+$L31)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>7.568097789179788</v>
       </c>
       <c r="AJ31">
-        <f>ABS((AJ$17/(AJ$17+$L31)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>8.214526142568614</v>
       </c>
       <c r="AK31">
-        <f>ABS((AK$17/(AK$17+$L31)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>9.1634054493095896</v>
       </c>
       <c r="AL31">
-        <f>ABS((AL$17/(AL$17+$L31)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>11.285396802638175</v>
       </c>
     </row>
@@ -5189,103 +5189,103 @@
         <v>19.600000000000001</v>
       </c>
       <c r="M32">
-        <f>L32*$I$19/(1-$I$19)</f>
+        <f t="shared" si="0"/>
         <v>23.882352941176478</v>
       </c>
       <c r="O32">
-        <f>ABS((O$17/(O$17+$L32)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>41.367621274108721</v>
       </c>
       <c r="P32">
-        <f>ABS((P$17/(P$17+$L32)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>40.435384779289052</v>
       </c>
       <c r="Q32">
-        <f>ABS((Q$17/(Q$17+$L32)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>39.475711735412951</v>
       </c>
       <c r="R32">
-        <f>ABS((R$17/(R$17+$L32)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>24.137931034482772</v>
       </c>
       <c r="S32">
-        <f>ABS((S$17/(S$17+$L32)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>19.889655172413804</v>
       </c>
       <c r="T32">
-        <f>ABS((T$17/(T$17+$L32)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>18.737580362361214</v>
       </c>
       <c r="U32">
-        <f>ABS((U$17/(U$17+$L32)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>17.611250240801393</v>
       </c>
       <c r="V32">
-        <f>ABS((V$17/(V$17+$L32)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>16.782882796828748</v>
       </c>
       <c r="W32">
-        <f>ABS((W$17/(W$17+$L32)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>12.337164750957861</v>
       </c>
       <c r="X32">
-        <f>ABS((X$17/(X$17+$L32)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>11.104708742234639</v>
       </c>
       <c r="Y32">
-        <f>ABS((Y$17/(Y$17+$L32)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>8.965517241379322</v>
       </c>
       <c r="Z32">
-        <f>ABS((Z$17/(Z$17+$L32)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>5.8263971462544637</v>
       </c>
       <c r="AA32">
-        <f>ABS((AA$17/(AA$17+$L32)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>3.7135278514588963</v>
       </c>
       <c r="AB32">
-        <f>ABS((AB$17/(AB$17+$L32)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>3.5078144381046941</v>
       </c>
       <c r="AC32">
-        <f>ABS((AC$17/(AC$17+$L32)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>1.3084112149532721</v>
       </c>
       <c r="AD32">
-        <f>ABS((AD$17/(AD$17+$L32)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>0.34562395476626817</v>
       </c>
       <c r="AE32">
-        <f>ABS((AE$17/(AE$17+$L32)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>0.22144890857322957</v>
       </c>
       <c r="AF32">
-        <f>ABS((AF$17/(AF$17+$L32)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>1.8767919411080753</v>
       </c>
       <c r="AG32">
-        <f>ABS((AG$17/(AG$17+$L32)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>2.9436501261564247</v>
       </c>
       <c r="AH32">
-        <f>ABS((AH$17/(AH$17+$L32)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>3.982494529540475</v>
       </c>
       <c r="AI32">
-        <f>ABS((AI$17/(AI$17+$L32)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>5.4906023383157967</v>
       </c>
       <c r="AJ32">
-        <f>ABS((AJ$17/(AJ$17+$L32)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>6.1423330887747403</v>
       </c>
       <c r="AK32">
-        <f>ABS((AK$17/(AK$17+$L32)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>7.0993914807302136</v>
       </c>
       <c r="AL32">
-        <f>ABS((AL$17/(AL$17+$L32)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>9.2413793103448114</v>
       </c>
     </row>
@@ -5297,103 +5297,103 @@
         <v>21</v>
       </c>
       <c r="M33">
-        <f>L33*$I$19/(1-$I$19)</f>
+        <f t="shared" si="0"/>
         <v>25.588235294117652</v>
       </c>
       <c r="O33">
-        <f>ABS((O$17/(O$17+$L33)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>44.075814286851958</v>
       </c>
       <c r="P33">
-        <f>ABS((P$17/(P$17+$L33)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>43.1668116154828</v>
       </c>
       <c r="Q33">
-        <f>ABS((Q$17/(Q$17+$L33)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>42.230393255907813</v>
       </c>
       <c r="R33">
-        <f>ABS((R$17/(R$17+$L33)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>27.172413793103452</v>
       </c>
       <c r="S33">
-        <f>ABS((S$17/(S$17+$L33)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>22.970822281167109</v>
       </c>
       <c r="T33">
-        <f>ABS((T$17/(T$17+$L33)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>21.829085457271361</v>
       </c>
       <c r="U33">
-        <f>ABS((U$17/(U$17+$L33)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>20.71190211345942</v>
       </c>
       <c r="V33">
-        <f>ABS((V$17/(V$17+$L33)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>19.889655172413804</v>
       </c>
       <c r="W33">
-        <f>ABS((W$17/(W$17+$L33)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>15.46798029556652</v>
       </c>
       <c r="X33">
-        <f>ABS((X$17/(X$17+$L33)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>14.239555285329653</v>
       </c>
       <c r="Y33">
-        <f>ABS((Y$17/(Y$17+$L33)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>12.104637336504169</v>
       </c>
       <c r="Z33">
-        <f>ABS((Z$17/(Z$17+$L33)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>8.965517241379322</v>
       </c>
       <c r="AA33">
-        <f>ABS((AA$17/(AA$17+$L33)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>6.8484362469927911</v>
       </c>
       <c r="AB33">
-        <f>ABS((AB$17/(AB$17+$L33)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>6.6421313705096532</v>
       </c>
       <c r="AC33">
-        <f>ABS((AC$17/(AC$17+$L33)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>4.434389140271521</v>
       </c>
       <c r="AD33">
-        <f>ABS((AD$17/(AD$17+$L33)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>3.4667900948854733</v>
       </c>
       <c r="AE33">
-        <f>ABS((AE$17/(AE$17+$L33)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>2.8965517241379444</v>
       </c>
       <c r="AF33">
-        <f>ABS((AF$17/(AF$17+$L33)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>1.230561189993258</v>
       </c>
       <c r="AG33">
-        <f>ABS((AG$17/(AG$17+$L33)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>0.15572858731926364</v>
       </c>
       <c r="AH33">
-        <f>ABS((AH$17/(AH$17+$L33)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>0.89171974522291531</v>
       </c>
       <c r="AI33">
-        <f>ABS((AI$17/(AI$17+$L33)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>2.4137931034482634</v>
       </c>
       <c r="AJ33">
-        <f>ABS((AJ$17/(AJ$17+$L33)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>3.0721003134796114</v>
       </c>
       <c r="AK33">
-        <f>ABS((AK$17/(AK$17+$L33)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>4.0394088669950552</v>
       </c>
       <c r="AL33">
-        <f>ABS((AL$17/(AL$17+$L33)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>6.2068965517241317</v>
       </c>
     </row>
@@ -5405,103 +5405,103 @@
         <v>22</v>
       </c>
       <c r="M34">
-        <f>L34*$I$19/(1-$I$19)</f>
+        <f t="shared" si="0"/>
         <v>26.806722689075638</v>
       </c>
       <c r="O34">
-        <f>ABS((O$17/(O$17+$L34)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>45.861958832145739</v>
       </c>
       <c r="P34">
-        <f>ABS((P$17/(P$17+$L34)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>44.969323140523002</v>
       </c>
       <c r="Q34">
-        <f>ABS((Q$17/(Q$17+$L34)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>44.049335533744468</v>
       </c>
       <c r="R34">
-        <f>ABS((R$17/(R$17+$L34)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>29.195402298850581</v>
       </c>
       <c r="S34">
-        <f>ABS((S$17/(S$17+$L34)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>25.030425963488845</v>
       </c>
       <c r="T34">
-        <f>ABS((T$17/(T$17+$L34)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>23.897099069512866</v>
       </c>
       <c r="U34">
-        <f>ABS((U$17/(U$17+$L34)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>22.787506770175142</v>
       </c>
       <c r="V34">
-        <f>ABS((V$17/(V$17+$L34)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>21.970443349753708</v>
       </c>
       <c r="W34">
-        <f>ABS((W$17/(W$17+$L34)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>17.570766855378302</v>
       </c>
       <c r="X34">
-        <f>ABS((X$17/(X$17+$L34)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>16.346691519105327</v>
       </c>
       <c r="Y34">
-        <f>ABS((Y$17/(Y$17+$L34)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>14.217506631299749</v>
       </c>
       <c r="Z34">
-        <f>ABS((Z$17/(Z$17+$L34)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>11.082598235765854</v>
       </c>
       <c r="AA34">
-        <f>ABS((AA$17/(AA$17+$L34)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>8.965517241379322</v>
       </c>
       <c r="AB34">
-        <f>ABS((AB$17/(AB$17+$L34)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>8.7590898428337027</v>
       </c>
       <c r="AC34">
-        <f>ABS((AC$17/(AC$17+$L34)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>6.5486725663717094</v>
       </c>
       <c r="AD34">
-        <f>ABS((AD$17/(AD$17+$L34)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>5.5791141628310799</v>
       </c>
       <c r="AE34">
-        <f>ABS((AE$17/(AE$17+$L34)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>5.0074962518740769</v>
       </c>
       <c r="AF34">
-        <f>ABS((AF$17/(AF$17+$L34)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>3.3365193735754937</v>
       </c>
       <c r="AG34">
-        <f>ABS((AG$17/(AG$17+$L34)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>2.2577132486388498</v>
       </c>
       <c r="AH34">
-        <f>ABS((AH$17/(AH$17+$L34)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>1.2058212058212225</v>
       </c>
       <c r="AI34">
-        <f>ABS((AI$17/(AI$17+$L34)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>0.32371569317379906</v>
       </c>
       <c r="AJ34">
-        <f>ABS((AJ$17/(AJ$17+$L34)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>0.98562055004885274</v>
       </c>
       <c r="AK34">
-        <f>ABS((AK$17/(AK$17+$L34)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>1.9586206896551697</v>
       </c>
       <c r="AL34">
-        <f>ABS((AL$17/(AL$17+$L34)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>4.1406145176438827</v>
       </c>
     </row>
@@ -5513,103 +5513,103 @@
         <v>22.1</v>
       </c>
       <c r="M35">
-        <f>L35*$I$19/(1-$I$19)</f>
+        <f t="shared" si="0"/>
         <v>26.928571428571438</v>
       </c>
       <c r="O35">
-        <f>ABS((O$17/(O$17+$L35)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>46.034318084510765</v>
       </c>
       <c r="P35">
-        <f>ABS((P$17/(P$17+$L35)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>45.143305678807778</v>
       </c>
       <c r="Q35">
-        <f>ABS((Q$17/(Q$17+$L35)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>44.224949672056638</v>
       </c>
       <c r="R35">
-        <f>ABS((R$17/(R$17+$L35)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>29.391536918521368</v>
       </c>
       <c r="S35">
-        <f>ABS((S$17/(S$17+$L35)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>25.230344827586215</v>
       </c>
       <c r="T35">
-        <f>ABS((T$17/(T$17+$L35)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>24.097898280411268</v>
       </c>
       <c r="U35">
-        <f>ABS((U$17/(U$17+$L35)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>22.989105969208616</v>
       </c>
       <c r="V35">
-        <f>ABS((V$17/(V$17+$L35)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>22.172592460246577</v>
       </c>
       <c r="W35">
-        <f>ABS((W$17/(W$17+$L35)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>17.775305895439388</v>
       </c>
       <c r="X35">
-        <f>ABS((X$17/(X$17+$L35)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>16.551724137931036</v>
       </c>
       <c r="Y35">
-        <f>ABS((Y$17/(Y$17+$L35)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>14.42322004465394</v>
       </c>
       <c r="Z35">
-        <f>ABS((Z$17/(Z$17+$L35)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>11.28890311224899</v>
       </c>
       <c r="AA35">
-        <f>ABS((AA$17/(AA$17+$L35)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>9.1719446399249502</v>
       </c>
       <c r="AB35">
-        <f>ABS((AB$17/(AB$17+$L35)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>8.965517241379322</v>
       </c>
       <c r="AC35">
-        <f>ABS((AC$17/(AC$17+$L35)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>6.7549668874172184</v>
       </c>
       <c r="AD35">
-        <f>ABS((AD$17/(AD$17+$L35)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>5.7852733022135263</v>
       </c>
       <c r="AE35">
-        <f>ABS((AE$17/(AE$17+$L35)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>5.2135537437355248</v>
       </c>
       <c r="AF35">
-        <f>ABS((AF$17/(AF$17+$L35)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>3.5421863536317191</v>
       </c>
       <c r="AG35">
-        <f>ABS((AG$17/(AG$17+$L35)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>2.463054187192133</v>
       </c>
       <c r="AH35">
-        <f>ABS((AH$17/(AH$17+$L35)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>1.4107883817427573</v>
       </c>
       <c r="AI35">
-        <f>ABS((AI$17/(AI$17+$L35)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>0.11939040662965941</v>
       </c>
       <c r="AJ35">
-        <f>ABS((AJ$17/(AJ$17+$L35)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>0.78160919540228857</v>
       </c>
       <c r="AK35">
-        <f>ABS((AK$17/(AK$17+$L35)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>1.7551104687177248</v>
       </c>
       <c r="AL35">
-        <f>ABS((AL$17/(AL$17+$L35)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>3.9383997321727344</v>
       </c>
     </row>
@@ -5621,103 +5621,103 @@
         <v>23.2</v>
       </c>
       <c r="M36">
-        <f>L36*$I$19/(1-$I$19)</f>
+        <f t="shared" si="0"/>
         <v>28.268907563025216</v>
       </c>
       <c r="O36">
-        <f>ABS((O$17/(O$17+$L36)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>47.86028702043933</v>
       </c>
       <c r="P36">
-        <f>ABS((P$17/(P$17+$L36)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>46.986946490091356</v>
       </c>
       <c r="Q36">
-        <f>ABS((Q$17/(Q$17+$L36)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>46.086374288583876</v>
       </c>
       <c r="R36">
-        <f>ABS((R$17/(R$17+$L36)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>31.479421579532822</v>
       </c>
       <c r="S36">
-        <f>ABS((S$17/(S$17+$L36)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>27.361086296230138</v>
       </c>
       <c r="T36">
-        <f>ABS((T$17/(T$17+$L36)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>26.23872679045094</v>
       </c>
       <c r="U36">
-        <f>ABS((U$17/(U$17+$L36)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>25.139156310169795</v>
       </c>
       <c r="V36">
-        <f>ABS((V$17/(V$17+$L36)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>24.32901936940851</v>
       </c>
       <c r="W36">
-        <f>ABS((W$17/(W$17+$L36)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>19.960019990005009</v>
       </c>
       <c r="X36">
-        <f>ABS((X$17/(X$17+$L36)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>18.742490330014004</v>
       </c>
       <c r="Y36">
-        <f>ABS((Y$17/(Y$17+$L36)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>16.622623267805352</v>
       </c>
       <c r="Z36">
-        <f>ABS((Z$17/(Z$17+$L36)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>13.496645342487144</v>
       </c>
       <c r="AA36">
-        <f>ABS((AA$17/(AA$17+$L36)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>11.382361916386955</v>
       </c>
       <c r="AB36">
-        <f>ABS((AB$17/(AB$17+$L36)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>11.176067595341404</v>
       </c>
       <c r="AC36">
-        <f>ABS((AC$17/(AC$17+$L36)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>8.965517241379322</v>
       </c>
       <c r="AD36">
-        <f>ABS((AD$17/(AD$17+$L36)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>7.9950003676200447</v>
       </c>
       <c r="AE36">
-        <f>ABS((AE$17/(AE$17+$L36)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>7.4225599064874501</v>
       </c>
       <c r="AF36">
-        <f>ABS((AF$17/(AF$17+$L36)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>5.748082299806434</v>
       </c>
       <c r="AG36">
-        <f>ABS((AG$17/(AG$17+$L36)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>4.6661474191036136</v>
       </c>
       <c r="AH36">
-        <f>ABS((AH$17/(AH$17+$L36)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>3.6105476673428094</v>
       </c>
       <c r="AI36">
-        <f>ABS((AI$17/(AI$17+$L36)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>2.0744607775793558</v>
       </c>
       <c r="AJ36">
-        <f>ABS((AJ$17/(AJ$17+$L36)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>1.4092953523238534</v>
       </c>
       <c r="AK36">
-        <f>ABS((AK$17/(AK$17+$L36)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>0.43103448275863293</v>
       </c>
       <c r="AL36">
-        <f>ABS((AL$17/(AL$17+$L36)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>1.7647830077356641</v>
       </c>
     </row>
@@ -5726,103 +5726,103 @@
         <v>23.7</v>
       </c>
       <c r="M37">
-        <f>L37*$I$19/(1-$I$19)</f>
+        <f t="shared" si="0"/>
         <v>28.878151260504207</v>
       </c>
       <c r="O37">
-        <f>ABS((O$17/(O$17+$L37)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>48.650043351544461</v>
       </c>
       <c r="P37">
-        <f>ABS((P$17/(P$17+$L37)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>47.784615065323202</v>
       </c>
       <c r="Q37">
-        <f>ABS((Q$17/(Q$17+$L37)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>46.892017231073659</v>
       </c>
       <c r="R37">
-        <f>ABS((R$17/(R$17+$L37)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>32.38818256654168</v>
       </c>
       <c r="S37">
-        <f>ABS((S$17/(S$17+$L37)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>28.28997266072847</v>
       </c>
       <c r="T37">
-        <f>ABS((T$17/(T$17+$L37)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>27.172413793103452</v>
       </c>
       <c r="U37">
-        <f>ABS((U$17/(U$17+$L37)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>26.077262120819299</v>
       </c>
       <c r="V37">
-        <f>ABS((V$17/(V$17+$L37)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>25.270200720535268</v>
       </c>
       <c r="W37">
-        <f>ABS((W$17/(W$17+$L37)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>20.915151016377258</v>
       </c>
       <c r="X37">
-        <f>ABS((X$17/(X$17+$L37)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="3"/>
         <v>19.700715679895914</v>
       </c>
       <c r="Y37">
-        <f>ABS((Y$17/(Y$17+$L37)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>17.585410527992355</v>
       </c>
       <c r="Z37">
-        <f>ABS((Z$17/(Z$17+$L37)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>14.46424438787319</v>
       </c>
       <c r="AA37">
-        <f>ABS((AA$17/(AA$17+$L37)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>12.351920319927585</v>
       </c>
       <c r="AB37">
-        <f>ABS((AB$17/(AB$17+$L37)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>12.145761180545096</v>
       </c>
       <c r="AC37">
-        <f>ABS((AC$17/(AC$17+$L37)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>9.9360341151386073</v>
       </c>
       <c r="AD37">
-        <f>ABS((AD$17/(AD$17+$L37)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>8.965517241379322</v>
       </c>
       <c r="AE37">
-        <f>ABS((AE$17/(AE$17+$L37)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>8.3929733246584366</v>
       </c>
       <c r="AF37">
-        <f>ABS((AF$17/(AF$17+$L37)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>6.7177522349936156</v>
       </c>
       <c r="AG37">
-        <f>ABS((AG$17/(AG$17+$L37)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>5.6349873843566112</v>
       </c>
       <c r="AH37">
-        <f>ABS((AH$17/(AH$17+$L37)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>4.5783132530120456</v>
       </c>
       <c r="AI37">
-        <f>ABS((AI$17/(AI$17+$L37)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>3.0401958783921867</v>
       </c>
       <c r="AJ37">
-        <f>ABS((AJ$17/(AJ$17+$L37)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>2.3739793508333866</v>
       </c>
       <c r="AK37">
-        <f>ABS((AK$17/(AK$17+$L37)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>1.3939838591342777</v>
       </c>
       <c r="AL37">
-        <f>ABS((AL$17/(AL$17+$L37)-$I$19)/$I$19*100)</f>
+        <f t="shared" si="4"/>
         <v>0.80654587960256019</v>
       </c>
     </row>
